--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H2">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I2">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J2">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N2">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O2">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P2">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q2">
-        <v>24.8199784544735</v>
+        <v>212.398454240923</v>
       </c>
       <c r="R2">
-        <v>99.27991381789398</v>
+        <v>849.5938169636919</v>
       </c>
       <c r="S2">
-        <v>0.02761511128898465</v>
+        <v>0.1543964984029302</v>
       </c>
       <c r="T2">
-        <v>0.01990262339975733</v>
+        <v>0.1445974088414612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H3">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I3">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J3">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.054378</v>
       </c>
       <c r="O3">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P3">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q3">
-        <v>51.36135056121633</v>
+        <v>79.53881361113265</v>
       </c>
       <c r="R3">
-        <v>308.168103367298</v>
+        <v>477.232881666796</v>
       </c>
       <c r="S3">
-        <v>0.05714547312368449</v>
+        <v>0.05781828475433465</v>
       </c>
       <c r="T3">
-        <v>0.06177839473538463</v>
+        <v>0.08122309358321449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H4">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I4">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J4">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N4">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O4">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P4">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q4">
-        <v>1.530790642104</v>
+        <v>1.204618853978</v>
       </c>
       <c r="R4">
-        <v>9.184743852623999</v>
+        <v>7.227713123867999</v>
       </c>
       <c r="S4">
-        <v>0.001703182539798661</v>
+        <v>0.0008756604826953546</v>
       </c>
       <c r="T4">
-        <v>0.001841263664443917</v>
+        <v>0.001230127348732105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H5">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I5">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J5">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N5">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O5">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P5">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q5">
-        <v>335.4306145456673</v>
+        <v>967.4844897199609</v>
       </c>
       <c r="R5">
-        <v>1341.722458182669</v>
+        <v>3869.937958879844</v>
       </c>
       <c r="S5">
-        <v>0.3732055516245454</v>
+        <v>0.7032829782389594</v>
       </c>
       <c r="T5">
-        <v>0.268974818422871</v>
+        <v>0.6586476855859141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H6">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I6">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J6">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N6">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O6">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P6">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q6">
-        <v>77.848844828438</v>
+        <v>7.872654195156668</v>
       </c>
       <c r="R6">
-        <v>467.093068970628</v>
+        <v>47.23592517094001</v>
       </c>
       <c r="S6">
-        <v>0.08661588959875735</v>
+        <v>0.005722782895070309</v>
       </c>
       <c r="T6">
-        <v>0.09363804909632918</v>
+        <v>0.008039362160564043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3250705</v>
+        <v>23.732591</v>
       </c>
       <c r="H7">
-        <v>30.650141</v>
+        <v>47.465182</v>
       </c>
       <c r="I7">
-        <v>0.5468844173754854</v>
+        <v>0.9251238506064837</v>
       </c>
       <c r="J7">
-        <v>0.4467829378564527</v>
+        <v>0.8979909126657287</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N7">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O7">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P7">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q7">
-        <v>0.5385587358678332</v>
+        <v>4.165038077045333</v>
       </c>
       <c r="R7">
-        <v>3.231352415207</v>
+        <v>24.990228462272</v>
       </c>
       <c r="S7">
-        <v>0.000599209199714859</v>
+        <v>0.003027645832493882</v>
       </c>
       <c r="T7">
-        <v>0.0006477885376666159</v>
+        <v>0.004253235145842746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.934058</v>
       </c>
       <c r="I8">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J8">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N8">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O8">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P8">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q8">
-        <v>1.044112170962</v>
+        <v>5.769715993957999</v>
       </c>
       <c r="R8">
-        <v>6.264673025771999</v>
+        <v>34.618295963748</v>
       </c>
       <c r="S8">
-        <v>0.001161696165538055</v>
+        <v>0.004194116898967813</v>
       </c>
       <c r="T8">
-        <v>0.001255877681192001</v>
+        <v>0.005891893037492171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.934058</v>
       </c>
       <c r="I9">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J9">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.054378</v>
       </c>
       <c r="O9">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P9">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q9">
         <v>2.160638911769333</v>
@@ -1013,10 +1013,10 @@
         <v>19.445750205924</v>
       </c>
       <c r="S9">
-        <v>0.002403961958035734</v>
+        <v>0.001570609746113814</v>
       </c>
       <c r="T9">
-        <v>0.003898285445575227</v>
+        <v>0.003309587518896792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.934058</v>
       </c>
       <c r="I10">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J10">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N10">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O10">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P10">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q10">
-        <v>0.064396395168</v>
+        <v>0.032722971988</v>
       </c>
       <c r="R10">
-        <v>0.579567556512</v>
+        <v>0.294506747892</v>
       </c>
       <c r="S10">
-        <v>7.164847553899604E-05</v>
+        <v>2.378695414870367E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001161857859096659</v>
+        <v>5.0123849516349E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.934058</v>
       </c>
       <c r="I11">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J11">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N11">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O11">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P11">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q11">
-        <v>14.110696663287</v>
+        <v>26.281315248706</v>
       </c>
       <c r="R11">
-        <v>84.66417997972201</v>
+        <v>157.687891492236</v>
       </c>
       <c r="S11">
-        <v>0.01569979036994458</v>
+        <v>0.01910439067141729</v>
       </c>
       <c r="T11">
-        <v>0.0169726103174958</v>
+        <v>0.02683783716428017</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.934058</v>
       </c>
       <c r="I12">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J12">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N12">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O12">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P12">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q12">
-        <v>3.274899151496</v>
+        <v>0.2138573888733334</v>
       </c>
       <c r="R12">
-        <v>29.474092363464</v>
+        <v>1.92471649986</v>
       </c>
       <c r="S12">
-        <v>0.003643706004606275</v>
+        <v>0.0001554570258886313</v>
       </c>
       <c r="T12">
-        <v>0.005908665084416683</v>
+        <v>0.0003275789125076182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.934058</v>
       </c>
       <c r="I13">
-        <v>0.02300601015180532</v>
+        <v>0.02513060604095405</v>
       </c>
       <c r="J13">
-        <v>0.02819250049207849</v>
+        <v>0.03659032653806013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N13">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O13">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P13">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q13">
-        <v>0.02265577030733333</v>
+        <v>0.1131415334186667</v>
       </c>
       <c r="R13">
-        <v>0.203901932766</v>
+        <v>1.018273800768</v>
       </c>
       <c r="S13">
-        <v>2.520717814168448E-05</v>
+        <v>8.224474441779876E-05</v>
       </c>
       <c r="T13">
-        <v>4.087617748911563E-05</v>
+        <v>0.0001733060553670337</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H14">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I14">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J14">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N14">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O14">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P14">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q14">
-        <v>0.09171715892133332</v>
+        <v>1.676192443240667</v>
       </c>
       <c r="R14">
-        <v>0.550302953528</v>
+        <v>10.057154659444</v>
       </c>
       <c r="S14">
-        <v>0.0001020460011827935</v>
+        <v>0.001218456343341638</v>
       </c>
       <c r="T14">
-        <v>0.0001103191171170003</v>
+        <v>0.001711686779066541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H15">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I15">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J15">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.054378</v>
       </c>
       <c r="O15">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P15">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q15">
-        <v>0.1897953763528889</v>
+        <v>0.6276992871524444</v>
       </c>
       <c r="R15">
-        <v>1.708158387176</v>
+        <v>5.649293584372</v>
       </c>
       <c r="S15">
-        <v>0.0002111694194148298</v>
+        <v>0.0004562866162689812</v>
       </c>
       <c r="T15">
-        <v>0.0003424341518815188</v>
+        <v>0.0009614867690589507</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H16">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I16">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J16">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N16">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O16">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P16">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q16">
-        <v>0.005656724032</v>
+        <v>0.009506533497333334</v>
       </c>
       <c r="R16">
-        <v>0.050910516288</v>
+        <v>0.08555880147599999</v>
       </c>
       <c r="S16">
-        <v>6.293763065156844E-06</v>
+        <v>6.910481006954666E-06</v>
       </c>
       <c r="T16">
-        <v>1.020602047082609E-05</v>
+        <v>1.456175969032422E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H17">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I17">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J17">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N17">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O17">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P17">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q17">
-        <v>1.239515297638</v>
+        <v>7.635131792351332</v>
       </c>
       <c r="R17">
-        <v>7.437091785828001</v>
+        <v>45.810790754108</v>
       </c>
       <c r="S17">
-        <v>0.001379104859073835</v>
+        <v>0.00555012331797284</v>
       </c>
       <c r="T17">
-        <v>0.001490912222932299</v>
+        <v>0.00779681008472484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H18">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I18">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J18">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N18">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O18">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P18">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q18">
-        <v>0.2876744992373333</v>
+        <v>0.06212890539777779</v>
       </c>
       <c r="R18">
-        <v>2.589070493136</v>
+        <v>0.5591601485800001</v>
       </c>
       <c r="S18">
-        <v>0.0003200713218189782</v>
+        <v>4.516268951817826E-05</v>
       </c>
       <c r="T18">
-        <v>0.0005190304161104368</v>
+        <v>9.516678087539538E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.05663066666666667</v>
+        <v>0.1872913333333333</v>
       </c>
       <c r="H19">
-        <v>0.169892</v>
+        <v>0.561874</v>
       </c>
       <c r="I19">
-        <v>0.002020899619716942</v>
+        <v>0.007300832828516526</v>
       </c>
       <c r="J19">
-        <v>0.002476492583779907</v>
+        <v>0.01063006028425518</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N19">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O19">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P19">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q19">
-        <v>0.001990133764888889</v>
+        <v>0.03286937927822222</v>
       </c>
       <c r="R19">
-        <v>0.017911203884</v>
+        <v>0.295824413504</v>
       </c>
       <c r="S19">
-        <v>2.214255161348346E-06</v>
+        <v>2.389338040793309E-05</v>
       </c>
       <c r="T19">
-        <v>3.590655267825904E-06</v>
+        <v>5.034811083912514E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H20">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I20">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J20">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N20">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O20">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P20">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q20">
-        <v>0.227677109293</v>
+        <v>3.316607157005</v>
       </c>
       <c r="R20">
-        <v>0.9107084371719999</v>
+        <v>13.26642862802</v>
       </c>
       <c r="S20">
-        <v>0.0002533172509643054</v>
+        <v>0.002410905170895579</v>
       </c>
       <c r="T20">
-        <v>0.0001825695284673885</v>
+        <v>0.002257892143150864</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H21">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I21">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J21">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.054378</v>
       </c>
       <c r="O21">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P21">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q21">
-        <v>0.4711448016206667</v>
+        <v>1.242000557043333</v>
       </c>
       <c r="R21">
-        <v>2.826868809724</v>
+        <v>7.452003342259999</v>
       </c>
       <c r="S21">
-        <v>0.0005242033611691667</v>
+        <v>0.0009028339575600957</v>
       </c>
       <c r="T21">
-        <v>0.0005667017945206605</v>
+        <v>0.001268300630788081</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H22">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I22">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J22">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N22">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O22">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P22">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q22">
-        <v>0.014042155152</v>
+        <v>0.01881015343</v>
       </c>
       <c r="R22">
-        <v>0.08425293091200001</v>
+        <v>0.11286092058</v>
       </c>
       <c r="S22">
-        <v>1.562352997086415E-05</v>
+        <v>1.367346026313174E-05</v>
       </c>
       <c r="T22">
-        <v>1.689016730356062E-05</v>
+        <v>1.920846921138476E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H23">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I23">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J23">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N23">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O23">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P23">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q23">
-        <v>3.076951610905501</v>
+        <v>15.107294421535</v>
       </c>
       <c r="R23">
-        <v>12.307806443622</v>
+        <v>60.42917768613999</v>
       </c>
       <c r="S23">
-        <v>0.003423466354809068</v>
+        <v>0.0109817812345346</v>
       </c>
       <c r="T23">
-        <v>0.002467343363873516</v>
+        <v>0.01028480002722231</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H24">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I24">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J24">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N24">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O24">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P24">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q24">
-        <v>0.7141182650440001</v>
+        <v>0.1229316914833333</v>
       </c>
       <c r="R24">
-        <v>4.284709590264001</v>
+        <v>0.7375901489000001</v>
       </c>
       <c r="S24">
-        <v>0.0007945395842651237</v>
+        <v>8.936139754692737E-05</v>
       </c>
       <c r="T24">
-        <v>0.0008589548285544827</v>
+        <v>0.0001255348405183667</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.140579</v>
+        <v>0.370585</v>
       </c>
       <c r="H25">
-        <v>0.281158</v>
+        <v>0.74117</v>
       </c>
       <c r="I25">
-        <v>0.005016646710384032</v>
+        <v>0.01444583198593882</v>
       </c>
       <c r="J25">
-        <v>0.004098401936938709</v>
+        <v>0.01402215048370526</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N25">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O25">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P25">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q25">
-        <v>0.004940274077666667</v>
+        <v>0.06503717338666666</v>
       </c>
       <c r="R25">
-        <v>0.029641644466</v>
+        <v>0.39022304032</v>
       </c>
       <c r="S25">
-        <v>5.496629205504482E-06</v>
+        <v>4.727676513848595E-05</v>
       </c>
       <c r="T25">
-        <v>5.942254219100343E-06</v>
+        <v>6.641437281425084E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H26">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I26">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J26">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N26">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O26">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P26">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q26">
-        <v>18.748052526722</v>
+        <v>4.996233283780001</v>
       </c>
       <c r="R26">
-        <v>112.488315160332</v>
+        <v>29.97739970268</v>
       </c>
       <c r="S26">
-        <v>0.02085938784865639</v>
+        <v>0.00363185752446582</v>
       </c>
       <c r="T26">
-        <v>0.02255050883319544</v>
+        <v>0.005102031387544293</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H27">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I27">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J27">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.054378</v>
       </c>
       <c r="O27">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P27">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q27">
-        <v>38.79637929304933</v>
+        <v>1.870985687426667</v>
       </c>
       <c r="R27">
-        <v>349.1674136374439</v>
+        <v>16.83887118684</v>
       </c>
       <c r="S27">
-        <v>0.04316548194239533</v>
+        <v>0.001360055277864725</v>
       </c>
       <c r="T27">
-        <v>0.06999751782460557</v>
+        <v>0.00286590732278865</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H28">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I28">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J28">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N28">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O28">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P28">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q28">
-        <v>1.156300091808</v>
+        <v>0.02833616108</v>
       </c>
       <c r="R28">
-        <v>10.406700826272</v>
+        <v>0.25502544972</v>
       </c>
       <c r="S28">
-        <v>0.001286518269035235</v>
+        <v>2.059809740409333E-05</v>
       </c>
       <c r="T28">
-        <v>0.002086229121422788</v>
+        <v>4.340429330092014E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H29">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I29">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J29">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N29">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O29">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P29">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q29">
-        <v>253.371323110047</v>
+        <v>22.75806679646</v>
       </c>
       <c r="R29">
-        <v>1520.227938660282</v>
+        <v>136.54840077876</v>
       </c>
       <c r="S29">
-        <v>0.2819050507217558</v>
+        <v>0.01654327399109863</v>
       </c>
       <c r="T29">
-        <v>0.3047597744740549</v>
+        <v>0.02323998190643359</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H30">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I30">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J30">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N30">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O30">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P30">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q30">
-        <v>58.804008821576</v>
+        <v>0.1851878680666667</v>
       </c>
       <c r="R30">
-        <v>529.236079394184</v>
+        <v>1.6666908126</v>
       </c>
       <c r="S30">
-        <v>0.06542629562813226</v>
+        <v>0.0001346166029238843</v>
       </c>
       <c r="T30">
-        <v>0.1060958452992536</v>
+        <v>0.0002836639909917431</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>11.575966</v>
+        <v>0.5582600000000001</v>
       </c>
       <c r="H31">
-        <v>34.727898</v>
+        <v>1.67478</v>
       </c>
       <c r="I31">
-        <v>0.4130953538822825</v>
+        <v>0.02176162058494059</v>
       </c>
       <c r="J31">
-        <v>0.5062238471927168</v>
+        <v>0.03168506170932431</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N31">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O31">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P31">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q31">
-        <v>0.4068064558273333</v>
+        <v>0.09797388565333334</v>
       </c>
       <c r="R31">
-        <v>3.661258102445999</v>
+        <v>0.8817649708800001</v>
       </c>
       <c r="S31">
-        <v>0.0004526194723075771</v>
+        <v>7.121909118342936E-05</v>
       </c>
       <c r="T31">
-        <v>0.0007339716401844739</v>
+        <v>0.0001500728082651093</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H32">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I32">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J32">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N32">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O32">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P32">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q32">
-        <v>0.4527845056126666</v>
+        <v>1.432007127571</v>
       </c>
       <c r="R32">
-        <v>2.716707033675999</v>
+        <v>8.592042765426001</v>
       </c>
       <c r="S32">
-        <v>0.0005037753975232821</v>
+        <v>0.001040953367458178</v>
       </c>
       <c r="T32">
-        <v>0.0005446176864929943</v>
+        <v>0.001462330699363737</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H33">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I33">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J33">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.054378</v>
       </c>
       <c r="O33">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P33">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q33">
-        <v>0.9369719544324444</v>
+        <v>0.5362569535486666</v>
       </c>
       <c r="R33">
-        <v>8.432747589891999</v>
+        <v>4.826312581938001</v>
       </c>
       <c r="S33">
-        <v>0.001042490219875506</v>
+        <v>0.0003898154351830707</v>
       </c>
       <c r="T33">
-        <v>0.001690511132137806</v>
+        <v>0.0008214187529062506</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H34">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I34">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J34">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2545,28 +2545,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N34">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O34">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P34">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q34">
-        <v>0.027925821344</v>
+        <v>0.008121635306</v>
       </c>
       <c r="R34">
-        <v>0.251332392096</v>
+        <v>0.073094717754</v>
       </c>
       <c r="S34">
-        <v>3.107072254979609E-05</v>
+        <v>5.903772026182714E-06</v>
       </c>
       <c r="T34">
-        <v>5.038455167499606E-05</v>
+        <v>1.24404233837286E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H35">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I35">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J35">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N35">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O35">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P35">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q35">
-        <v>6.119174730671</v>
+        <v>6.522856722497</v>
       </c>
       <c r="R35">
-        <v>36.715048384026</v>
+        <v>39.137140334982</v>
       </c>
       <c r="S35">
-        <v>0.006808293226127498</v>
+        <v>0.004741589297986099</v>
       </c>
       <c r="T35">
-        <v>0.007360258011821866</v>
+        <v>0.006660981952679254</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H36">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I36">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J36">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N36">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O36">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P36">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q36">
-        <v>1.420176523634667</v>
+        <v>0.05307805539666668</v>
       </c>
       <c r="R36">
-        <v>12.781588712712</v>
+        <v>0.4777024985700001</v>
       </c>
       <c r="S36">
-        <v>0.001580111474395984</v>
+        <v>3.858345355934863E-05</v>
       </c>
       <c r="T36">
-        <v>0.002562322395508022</v>
+        <v>8.1303020468269E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2795713333333333</v>
+        <v>0.160007</v>
       </c>
       <c r="H37">
-        <v>0.838714</v>
+        <v>0.480021</v>
       </c>
       <c r="I37">
-        <v>0.009976672260325826</v>
+        <v>0.006237257953166246</v>
       </c>
       <c r="J37">
-        <v>0.01222581993803346</v>
+        <v>0.009081488318926405</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N37">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O37">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P37">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q37">
-        <v>0.009824788986444444</v>
+        <v>0.02808101515733333</v>
       </c>
       <c r="R37">
-        <v>0.088423100878</v>
+        <v>0.252729136416</v>
       </c>
       <c r="S37">
-        <v>1.093121985376072E-05</v>
+        <v>2.041262695336758E-05</v>
       </c>
       <c r="T37">
-        <v>1.772616039777821E-05</v>
+        <v>4.30134701251663E-05</v>
       </c>
     </row>
   </sheetData>
